--- a/data/trans_dic/P19C09-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19C09-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,95</t>
+          <t>0,65; 3,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,53; 4,86</t>
+          <t>1,54; 4,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,22; 4,56</t>
+          <t>1,1; 4,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,14; 5,66</t>
+          <t>1,09; 5,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,98; 7,71</t>
+          <t>2,01; 7,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 6,13</t>
+          <t>1,59; 6,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,18; 3,6</t>
+          <t>1,02; 3,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,08; 5,05</t>
+          <t>2,08; 5,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,79; 4,52</t>
+          <t>1,9; 4,66</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,65; 4,21</t>
+          <t>0,65; 4,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 4,05</t>
+          <t>0,79; 4,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,65; 4,14</t>
+          <t>0,65; 4,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,29</t>
+          <t>0,9; 4,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,26; 7,9</t>
+          <t>2,15; 7,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 5,49</t>
+          <t>1,63; 5,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,54</t>
+          <t>1,13; 3,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,79; 5,23</t>
+          <t>1,79; 4,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,51; 4,13</t>
+          <t>1,37; 3,99</t>
         </is>
       </c>
     </row>
@@ -905,27 +906,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,54; 5,26</t>
+          <t>1,66; 5,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,73</t>
+          <t>1,12; 3,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 4,77</t>
+          <t>1,29; 4,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,72; 6,88</t>
+          <t>0,71; 7,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 6,2</t>
+          <t>1,25; 5,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,17 +936,17 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 5,05</t>
+          <t>1,82; 4,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,43; 3,74</t>
+          <t>1,33; 3,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,6</t>
+          <t>1,08; 3,49</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,96; 4,29</t>
+          <t>1,98; 4,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,19</t>
+          <t>0,71; 2,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,03</t>
+          <t>1,8; 4,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,61</t>
+          <t>1,13; 3,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,35; 4,01</t>
+          <t>1,33; 3,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,41; 3,97</t>
+          <t>1,4; 4,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,83; 3,46</t>
+          <t>1,86; 3,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,14; 2,6</t>
+          <t>1,16; 2,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,93; 3,63</t>
+          <t>1,94; 3,56</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,86; 6,96</t>
+          <t>1,9; 6,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,5; 3,54</t>
+          <t>0,28; 3,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,8; 5,63</t>
+          <t>1,88; 5,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,14; 5,75</t>
+          <t>2,0; 5,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,52</t>
+          <t>1,13; 3,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,65; 4,49</t>
+          <t>1,67; 4,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,44; 5,66</t>
+          <t>2,5; 5,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,01; 2,73</t>
+          <t>1,08; 2,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,03; 4,25</t>
+          <t>2,0; 4,26</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,81; 4,75</t>
+          <t>0,81; 4,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,43; 4,13</t>
+          <t>0,42; 3,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,29; 8,04</t>
+          <t>2,33; 8,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,81; 5,33</t>
+          <t>3,03; 5,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,71; 3,89</t>
+          <t>1,62; 4,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,79; 4,19</t>
+          <t>1,71; 4,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,71; 5,12</t>
+          <t>2,65; 4,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,5</t>
+          <t>1,61; 3,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,17; 4,35</t>
+          <t>2,22; 4,32</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,04; 3,32</t>
+          <t>2,09; 3,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,24</t>
+          <t>1,26; 2,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,32; 3,59</t>
+          <t>2,23; 3,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,45; 3,86</t>
+          <t>2,51; 3,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,24; 3,41</t>
+          <t>2,22; 3,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,06; 3,35</t>
+          <t>2,08; 3,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,45; 3,41</t>
+          <t>2,48; 3,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,89; 2,69</t>
+          <t>1,9; 2,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,33; 3,29</t>
+          <t>2,35; 3,24</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue por otros motivos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>5689</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10749</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>10077</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>7491</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11337</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>10702</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>13180</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>22085</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>20779</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2511; 12619</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5858; 18856</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4278; 18517</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2923; 14344</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5675; 22031</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5024; 19165</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6656; 21772</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>13749; 33565</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>13331; 32803</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>5729</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>7121</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>5821</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>7110</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>13562</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>10446</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>12839</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>20683</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>16267</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1937; 13937</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2938; 15586</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2061; 13165</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2983; 14476</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>6687; 23853</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5430; 18470</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>7152; 22392</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>12195; 32860</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>8910; 25965</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>13507</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>10938</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>10989</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4190</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6979</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>17697</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>17917</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>10989</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7122; 23624</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5868; 20633</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5216; 18343</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1001; 9811</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2966; 13095</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2057</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10367; 28420</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10127; 29508</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5869; 19001</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>25527</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>11818</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>24394</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>12602</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>16578</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>16808</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>38129</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>28395</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>41202</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>17251; 38672</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>6738; 22530</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>15863; 36553</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>6730; 21309</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>8981; 26474</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>9547; 27942</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>27276; 52897</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>18893; 41577</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>30368; 55702</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>9326</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>13834</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>16183</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>13821</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>15759</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>25509</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>18923</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>29593</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4683; 16092</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1102; 14156</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>7982; 23442</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>9121; 25372</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>7406; 22873</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>9299; 25494</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>17566; 38006</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>11327; 30669</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>19693; 41886</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>4512</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3058</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>10948</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>38457</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>23885</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>22685</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>42969</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>26943</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>33632</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1724; 9876</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>906; 8464</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>5617; 19438</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>28596; 51055</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>14637; 36118</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>14142; 33953</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>30640; 57496</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>17962; 39981</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>23708; 46107</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>64290</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>48784</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>76062</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>86034</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>86161</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>76400</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>150323</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>134945</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>152462</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>51121; 82872</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>35745; 65961</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>59147; 94975</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>68598; 104192</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>67925; 108895</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>59436; 95942</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>128453; 178874</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>111992; 161779</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>129678; 178819</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P19C09-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19C09-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
